--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CC8CED2B-5F7A-40C1-9823-A084084F6830}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="193">
   <si>
     <t>Country</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Sao Paulo Traffic Engineering Company</t>
   </si>
   <si>
-    <t>Data combines information from Mortality Statistics System and collisions from Sao Paulo Traffic Engineering Company. Rahul has been working on the data.</t>
-  </si>
-  <si>
     <t>Our area is Sao Paulo Metropolitan Area, formed by 39 cities: Caieiras, Cajamar, Francisco Morato, Franco da Rocha, Mairiporã, Arujá, Biritiba-Mirim, Ferraz de Vasconcelos, Guararema, Guarulhos, Itaquaquecetuba, Mogi das Cruzes, Poá, Salesópolis, Santa Isabel, Suzano, Diadema, Mauá, Ribeirão Pires, Rio Grande da Serra, Santo André, São Bernardo do Campo, São Caetano do Sul, Cotia, Embu das Artes, Embu-Guaçu, Itapecerica da Serra, Juquitiba, São Lourenço da Serra, Taboão da Serra, Vargem Grande Paulista, Barueri, Carapicuíba, Itapevi, Jandira, Osasco, Pirapora do Bom Jesus, Santana de Parnaíba, São Paulo.</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>2010-2017</t>
   </si>
   <si>
-    <t>Available under request to Bogota Secretary of Mobility. Dataset cannot be redistributed.</t>
-  </si>
-  <si>
     <t>Available under request to WHO-SAGE  (http://apps.who.int/healthinfo/systems/surveydata/index.php/catalog/sage/). Dataset cannot be redistributed.</t>
   </si>
   <si>
@@ -457,15 +451,9 @@
     <t>Openly available (http://www.beta.inegi.org.mx/programas/eod/2017/)</t>
   </si>
   <si>
-    <t>We must acknowledge also the WRI Ross Center for Sustainable Cities and the Bloomberg Initiative for Global Road Safety for sharing the data. Rahul has been working on the data.</t>
-  </si>
-  <si>
     <t>Data dictionary in the same folder (doc_base_usuario_enfr2013).</t>
   </si>
   <si>
-    <t>Two options available at least: WHO SAGE 2014 (wave 2), Physical Activity and Sports Survey 2013-2018 (https://www.inegi.org.mx/programas/mopradef/). Check with Andrea Calderon.</t>
-  </si>
-  <si>
     <t>Data exist. Request sent 3 times but no return from authorities.</t>
   </si>
   <si>
@@ -502,9 +490,6 @@
     <t>2007-2016</t>
   </si>
   <si>
-    <t>James Derry from Ghana, Rob Johnson processed it</t>
-  </si>
-  <si>
     <t>http://www.censusindia.gov.in/2011census/C-series/DDWCT-0000C-14.xls</t>
   </si>
   <si>
@@ -535,11 +520,77 @@
     <t xml:space="preserve">IPAQ long version. Covers Sao Paulo city only. Questionnaire and R code to process data are available in the same folder. </t>
   </si>
   <si>
-    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Sao Paulo\Physical activity\ISA 2015</t>
+    <t>2005 &amp; 2015</t>
+  </si>
+  <si>
+    <t>Census (2005) &amp; population projection (2015</t>
+  </si>
+  <si>
+    <t>Our area is Valley of Mexico Metropolitan Area, formed by 61 cities: Acolman, Amecameca, Apaxco, Atenco, Atizapán de Zaragoza, Atlautla, Axapusco, Ayapango, Chalco, Chiautla, Chicoloapan, Chiconcuac, Chimalhuacán, Coacalco de Berriozábal, Cocotitlán, Coyotepec, Cuautitlán, Cuautitlán Izcalli, Ecatepec de Morelos, Ecatzingo, Huehuetoca, Hueypoxtla, Huixquilucan, Isidro Fabela, Ixtapaluca, Jaltenco, Jilotzingo, Juchitepec, La Paz, Melchor Ocampo, Mexico City, Naucalpan de Juárez, Nextlalpan, Nezahualcóyotl, Nicolás Romero, Nopaltepec, Otumba, Ozumba, Papalotla, San Martín de las Pirámides, Tecámac, Temamatla, Temascalapa, Tenango del Aire, Teoloyucan, Teotihuacán, Tepetlaoxtoc, Tepetlixpa, Tepotzotlán, Tequixquiac, Texcoco, Tezoyuca, Tizayuca, Tlalmanalco, Tlalnepantla de Baz, Tonanitla, Tultepec, Tultitlán, Valle de Chalco Solidaridad, Villa del Carbón, Zumpango.</t>
+  </si>
+  <si>
+    <t>Census Mexico</t>
+  </si>
+  <si>
+    <t>Census Chile</t>
+  </si>
+  <si>
+    <t>Our area is Greater Accra Metropolitan Area, formed by 12 districts: Accra Metropolitan District, Tema Metropolis, Adenta, Ga East, Ga West, Ga South, Ga Central, La Nkwantang-Madina, Ledzokuku-Krowor, Ashaiman, Kpone-Katamanso, La Dade-Kotopon.</t>
+  </si>
+  <si>
+    <t>Our area is Santiago Metropolitan Area, formed by 52 cities:  Alhué, Buin, Calera de Tango, Cerrillos, Cerro Navia, Colina, Conchalí, Curacaví, El Bosque, El Monte, Estación Central, Huechuraba, Independencia, Isla de Maipo, La Cisterna, La Florida, La Granja, La Pintana, La Reina, Lampa, Las Condes, Lo Barnechea, Lo Espejo, Lo Prado, Macul, Maipú, María Pinto, Melipilla, Ñuñoa, Padre Hurtado, Paine, Pedro Aguirre Cerda, Peñaflor, Peñalolén, Pirque, Providencia, Pudahuel, Puente Alto, Quilicura, Quinta Normal, Recoleta, Renca, San Bernardo, San Joaquín, San José de Maipo, San Miguel, San Pedro, San Ramón, Santiago, Talagante, Til Til, Vitacura</t>
+  </si>
+  <si>
+    <t>Census Argentina</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‎Port Louis</t>
+  </si>
+  <si>
+    <t>Our area is Buenos Aires Metropolitan Area, formed by 43 cities: Almirante Brown, Avellaneda, Berazategui, Berisso, Brandsen, Buenos Aires, Campana, Cañuelas, Ensenada, Escobar, Esteban Echeverría, Exaltación de la Cruz, Ezeiza, Florencio Varela, General Las Heras, General Rodríguez, General San Martín, Hurlingham, Ituzaingó, José C. Paz, La Matanza (parte este), La Matanza (parte oeste), La Plata, Lanús, Lomas de Zamora, Luján, Malvinas Argentinas, Marcos Paz, Merlo, Moreno, Morón, Pilar, Presidente Perón, Quilmes, San Fernando (parte continental), San Fernando (parte insular), San Isidro, San Miguel, San Vicente, Tigre, Tres de Febrero, Vicente López, Zárate.</t>
+  </si>
+  <si>
+    <t>Our area is Bogota D.C. only</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Location of files to process original data</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Data available for Brazil and Minas Gerais state</t>
+  </si>
+  <si>
+    <t>Data available for India and New Dheli</t>
+  </si>
+  <si>
+    <t>Data available for India and Karnataka state</t>
+  </si>
+  <si>
+    <t>Data available for India and Andhra Pradesh state</t>
+  </si>
+  <si>
+    <t>Data combines information from Mortality Statistics System and collisions from Sao Paulo Traffic Engineering Company</t>
+  </si>
+  <si>
+    <t>Building and Road Research Institute (James Derry). Rob Johnson processed it</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Available under request to Pis Dataset cannot be redistributed. </t>
+      <t xml:space="preserve">Available under request to PIs Dataset cannot be redistributed. </t>
     </r>
     <r>
       <rPr>
@@ -562,49 +613,46 @@
     </r>
   </si>
   <si>
-    <t>2005 &amp; 2015</t>
-  </si>
-  <si>
-    <t>Census (2005) &amp; population projection (2015</t>
-  </si>
-  <si>
-    <t>Our area is Valley of Mexico Metropolitan Area, formed by 61 cities: Acolman, Amecameca, Apaxco, Atenco, Atizapán de Zaragoza, Atlautla, Axapusco, Ayapango, Chalco, Chiautla, Chicoloapan, Chiconcuac, Chimalhuacán, Coacalco de Berriozábal, Cocotitlán, Coyotepec, Cuautitlán, Cuautitlán Izcalli, Ecatepec de Morelos, Ecatzingo, Huehuetoca, Hueypoxtla, Huixquilucan, Isidro Fabela, Ixtapaluca, Jaltenco, Jilotzingo, Juchitepec, La Paz, Melchor Ocampo, Mexico City, Naucalpan de Juárez, Nextlalpan, Nezahualcóyotl, Nicolás Romero, Nopaltepec, Otumba, Ozumba, Papalotla, San Martín de las Pirámides, Tecámac, Temamatla, Temascalapa, Tenango del Aire, Teoloyucan, Teotihuacán, Tepetlaoxtoc, Tepetlixpa, Tepotzotlán, Tequixquiac, Texcoco, Tezoyuca, Tizayuca, Tlalmanalco, Tlalnepantla de Baz, Tonanitla, Tultepec, Tultitlán, Valle de Chalco Solidaridad, Villa del Carbón, Zumpango.</t>
-  </si>
-  <si>
-    <t>Census Mexico</t>
-  </si>
-  <si>
-    <t>Census Chile</t>
-  </si>
-  <si>
-    <t>Our area is Greater Accra Metropolitan Area, formed by 12 districts: Accra Metropolitan District, Tema Metropolis, Adenta, Ga East, Ga West, Ga South, Ga Central, La Nkwantang-Madina, Ledzokuku-Krowor, Ashaiman, Kpone-Katamanso, La Dade-Kotopon.</t>
-  </si>
-  <si>
-    <t>Our area is Santiago Metropolitan Area, formed by 52 cities:  Alhué, Buin, Calera de Tango, Cerrillos, Cerro Navia, Colina, Conchalí, Curacaví, El Bosque, El Monte, Estación Central, Huechuraba, Independencia, Isla de Maipo, La Cisterna, La Florida, La Granja, La Pintana, La Reina, Lampa, Las Condes, Lo Barnechea, Lo Espejo, Lo Prado, Macul, Maipú, María Pinto, Melipilla, Ñuñoa, Padre Hurtado, Paine, Pedro Aguirre Cerda, Peñaflor, Peñalolén, Pirque, Providencia, Pudahuel, Puente Alto, Quilicura, Quinta Normal, Recoleta, Renca, San Bernardo, San Joaquín, San José de Maipo, San Miguel, San Pedro, San Ramón, Santiago, Talagante, Til Til, Vitacura</t>
-  </si>
-  <si>
-    <t>Census Argentina</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‎Port Louis</t>
-  </si>
-  <si>
-    <t>Our area is Buenos Aires Metropolitan Area, formed by 43 cities: Almirante Brown, Avellaneda, Berazategui, Berisso, Brandsen, Buenos Aires, Campana, Cañuelas, Ensenada, Escobar, Esteban Echeverría, Exaltación de la Cruz, Ezeiza, Florencio Varela, General Las Heras, General Rodríguez, General San Martín, Hurlingham, Ituzaingó, José C. Paz, La Matanza (parte este), La Matanza (parte oeste), La Plata, Lanús, Lomas de Zamora, Luján, Malvinas Argentinas, Marcos Paz, Merlo, Moreno, Morón, Pilar, Presidente Perón, Quilmes, San Fernando (parte continental), San Fernando (parte insular), San Isidro, San Miguel, San Vicente, Tigre, Tres de Febrero, Vicente López, Zárate.</t>
-  </si>
-  <si>
-    <t>Our area is Bogota D.C. only</t>
-  </si>
-  <si>
-    <t>Sample size</t>
-  </si>
-  <si>
-    <t>Location of files to process original data</t>
+    <t xml:space="preserve">Available under request to PIs Dataset cannot be redistributed. </t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Sao Paulo\Physical activity\ISA 2015\Process PA data.R</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Accra\Accra data and microdata\Health\SAGE 2008\Datasets\Process PA data.R</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Sao Paulo\Physical activity\ISA 2015\Banco_Atividade fisica_ISA2015_Leandro.dta</t>
+  </si>
+  <si>
+    <t>Sample size (15 to 69 years of age)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Available under request to Bogota Secretary of Mobility. Dataset cannot be redistributed. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acknowledgement must be added into papers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Bogota Secretary of Mobility, WRI Ross Center for Sustainable Cities, and Bloomberg Initiative for Global Road Safety for sharing the data</t>
+    </r>
+  </si>
+  <si>
+    <t>Two options available at least: WHO SAGE 2014 (wave 2), Physical Activity and Sports Survey 2013-2018 (https://www.inegi.org.mx/programas/mopradef/)</t>
   </si>
 </sst>
 </file>
@@ -670,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +741,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -749,11 +803,28 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -762,117 +833,31 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,61 +866,26 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,22 +894,63 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,139 +960,10 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,143 +975,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1548,1120 +1371,1203 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="38" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="42" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="42" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="43" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="44"/>
-    </row>
-    <row r="2" spans="1:38" s="20" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="18" t="s">
+      <c r="R2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="W2" s="18" t="s">
+      <c r="V2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AA2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AE2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="22" customFormat="1" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="3" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="19">
         <v>2010</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="21">
         <v>2017</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="13" t="s">
+      <c r="M3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="19">
         <v>2009</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" s="13" t="s">
+      <c r="T3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13" t="s">
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16" t="s">
+      <c r="AA3" s="21">
+        <v>397</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AC3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="17" t="s">
+      <c r="AE3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF3" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AG3" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13" t="s">
+      <c r="AG3" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="13"/>
+      <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="14">
         <v>2010</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>2017</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="17" t="s">
         <v>87</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="14">
+        <v>2012</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>2015</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>3082</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="21">
+        <v>2017</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="26"/>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="H6" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="14">
+        <v>2015</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="5">
-        <v>2012</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="U6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>2015</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL6" s="26"/>
+    </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2010</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AL4" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-    </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2011</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="H7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="14">
+        <v>2017</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL6" s="5"/>
-    </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2011</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="V7" s="14"/>
+      <c r="W7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="26"/>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="5">
-        <v>2011</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>2011</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL7" s="5"/>
-    </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>2017</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="17" t="s">
         <v>87</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="V8" s="14"/>
+      <c r="W8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>2013</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="26"/>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="14">
+        <v>2012</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" s="16">
         <v>2015</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" s="5" t="s">
+      <c r="Z9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="26"/>
+    </row>
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-    </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2010</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="14">
+        <v>2011</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="16">
         <v>2017</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="17" t="s">
         <v>87</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="14">
+        <v>2013</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL10" s="26"/>
+    </row>
+    <row r="11" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2011</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="H11" s="14"/>
+      <c r="I11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="21">
         <v>2017</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="K11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="14">
+        <v>2011</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>2011</v>
+      </c>
+      <c r="AI11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL11" s="26"/>
+    </row>
+    <row r="12" spans="1:38" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2011</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-    </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2011</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL11" s="5"/>
-    </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2010</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="16">
         <v>2017</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="17" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>2013</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="15">
-        <v>2017</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" s="5">
-        <v>2012</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>2015</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-    </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL12" s="26"/>
+    </row>
+    <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-    </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="36"/>
+    </row>
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="26"/>
+    </row>
+    <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="26"/>
+    </row>
+    <row r="16" spans="1:38" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A13:AL13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="O1:W1"/>
@@ -2672,13 +2578,17 @@
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K8" r:id="rId3" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K10" r:id="rId4" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K12" r:id="rId5" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K13" r:id="rId6" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K9" r:id="rId6" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K5" r:id="rId7" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{BCDDC5AF-6E28-4005-8C24-7B6A8AA12123}"/>
+    <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{2DA8DA9C-5C56-4732-B7E0-F0EA32AEBAC8}"/>
+    <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{4DF01CCA-22EB-4871-AAF9-A63A4C27488F}"/>
+    <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{88B17616-30B0-4EEA-9A95-F3420944DE6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CC8CED2B-5F7A-40C1-9823-A084084F6830}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4512EEF0-1C7D-40C1-9BF5-210A5B2A4FDC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
   <si>
     <t>Country</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Background injury data</t>
   </si>
   <si>
-    <t>Brazil Population and Housing Census</t>
-  </si>
-  <si>
     <t>Mobility Survey</t>
   </si>
   <si>
@@ -517,15 +514,9 @@
     <t>https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/accra</t>
   </si>
   <si>
-    <t xml:space="preserve">IPAQ long version. Covers Sao Paulo city only. Questionnaire and R code to process data are available in the same folder. </t>
-  </si>
-  <si>
     <t>2005 &amp; 2015</t>
   </si>
   <si>
-    <t>Census (2005) &amp; population projection (2015</t>
-  </si>
-  <si>
     <t>Our area is Valley of Mexico Metropolitan Area, formed by 61 cities: Acolman, Amecameca, Apaxco, Atenco, Atizapán de Zaragoza, Atlautla, Axapusco, Ayapango, Chalco, Chiautla, Chicoloapan, Chiconcuac, Chimalhuacán, Coacalco de Berriozábal, Cocotitlán, Coyotepec, Cuautitlán, Cuautitlán Izcalli, Ecatepec de Morelos, Ecatzingo, Huehuetoca, Hueypoxtla, Huixquilucan, Isidro Fabela, Ixtapaluca, Jaltenco, Jilotzingo, Juchitepec, La Paz, Melchor Ocampo, Mexico City, Naucalpan de Juárez, Nextlalpan, Nezahualcóyotl, Nicolás Romero, Nopaltepec, Otumba, Ozumba, Papalotla, San Martín de las Pirámides, Tecámac, Temamatla, Temascalapa, Tenango del Aire, Teoloyucan, Teotihuacán, Tepetlaoxtoc, Tepetlixpa, Tepotzotlán, Tequixquiac, Texcoco, Tezoyuca, Tizayuca, Tlalmanalco, Tlalnepantla de Baz, Tonanitla, Tultepec, Tultitlán, Valle de Chalco Solidaridad, Villa del Carbón, Zumpango.</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
   </si>
   <si>
     <t>Data available for India and Andhra Pradesh state</t>
-  </si>
-  <si>
-    <t>Data combines information from Mortality Statistics System and collisions from Sao Paulo Traffic Engineering Company</t>
   </si>
   <si>
     <t>Building and Road Research Institute (James Derry). Rob Johnson processed it</t>
@@ -653,6 +641,63 @@
   </si>
   <si>
     <t>Two options available at least: WHO SAGE 2014 (wave 2), Physical Activity and Sports Survey 2013-2018 (https://www.inegi.org.mx/programas/mopradef/)</t>
+  </si>
+  <si>
+    <t>Census (2005) &amp; population projection (2015)</t>
+  </si>
+  <si>
+    <t>2010 &amp; 2017</t>
+  </si>
+  <si>
+    <t>Our area is Sao Paulo Metropolitan Area, formed by 34 cities: Baldim, Belo Horizonte, Betim, Brumadinho, Caeté, Capim Branco, Confins, Contagem, Esmeraldas, Florestal, Ibirité, Igarapé, Itaguara, Itatiaiuçu, Jaboticatubas, Nova União, Juatuba, Lagoa Santa, Mário Campos, Mateus Leme, Matozinhos, Nova Lima, Pedro Leopoldo, Raposos, Ribeirão das Neves, Rio Acima, Rio Manso, Sabará, Santa Luzia, São Joaquim de Bicas, São José da Lapa, Sarzedo, Taquaraçu de Minas, Vespasiano</t>
+  </si>
+  <si>
+    <t>https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte</t>
+  </si>
+  <si>
+    <t>Brazil Population and Housing Census (2010) &amp; population projection (2017) (both from the Brazilian Institute of Geography and Statistics)</t>
+  </si>
+  <si>
+    <t>Development Agency of the Belo Horizonte Metropolitan Area</t>
+  </si>
+  <si>
+    <t>Open available (https://prefeitura.pbh.gov.br/bhtrans/informacoes/dados/pesquisa-origem-destino)</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Belo Horizonte\Travel survey\BD_PESQUISA_OD_2012</t>
+  </si>
+  <si>
+    <t>National Health Survey</t>
+  </si>
+  <si>
+    <t>Ministry of Health &amp; Brazilian Institute of Geography and Statistic</t>
+  </si>
+  <si>
+    <t>Openly available (https://www.ibge.gov.br/estatisticas/sociais/saude/9160-pesquisa-nacional-de-saude.html?=&amp;t=microdados)</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Belo Horizonte\Physical activity\Data\PESPNS2013.txt</t>
+  </si>
+  <si>
+    <t>IPAQ long version. Covers Sao Paulo city only. Data from the 2013 National Health Survey available for the mtropolitan area</t>
+  </si>
+  <si>
+    <t>Covers Belo Horizonte Metropolitan Area</t>
+  </si>
+  <si>
+    <t>Mortality surveillance system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openly available </t>
+  </si>
+  <si>
+    <t>2010-2015</t>
+  </si>
+  <si>
+    <t>Data combines information from Mortality Statistics System and collisions from Sao Paulo Traffic Engineering Company. It covers only Sao Paulo city. Data from mortality surveillance system also available and covers the entire metropolitan area</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Road deaths 27 Brazilian capitals 2010-15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -980,6 +1025,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,93 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
@@ -1362,7 +1407,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:B1"/>
@@ -1376,1194 +1421,1238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="35"/>
+    </row>
+    <row r="2" spans="1:38" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="3" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2009</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>397</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" s="19"/>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2012</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>3082</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="21"/>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2015</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL6" s="21"/>
+    </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2017</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="21"/>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="21"/>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2012</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="21"/>
+    </row>
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2011</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="6"/>
-    </row>
-    <row r="2" spans="1:38" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="O10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2013</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL10" s="21"/>
+    </row>
+    <row r="11" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2011</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="9">
+        <v>2011</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>2011</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL11" s="21"/>
+    </row>
+    <row r="12" spans="1:38" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2011</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2017</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL12" s="21"/>
+    </row>
+    <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2010</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="21">
-        <v>2017</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="19">
-        <v>2009</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>397</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL3" s="24"/>
-    </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="14">
-        <v>2012</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>2015</v>
-      </c>
-      <c r="Z4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>3082</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL4" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="21">
-        <v>2017</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="26"/>
-    </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="14">
-        <v>2015</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="31"/>
+    </row>
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AG6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ6" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL6" s="26"/>
-    </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="14">
-        <v>2017</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="26"/>
-    </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="21"/>
+    </row>
+    <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>2013</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="26"/>
-    </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2017</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" s="14">
-        <v>2012</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>2015</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="26"/>
-    </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2011</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="14">
-        <v>2013</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH10" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI10" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL10" s="26"/>
-    </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2011</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="21">
-        <v>2017</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P11" s="14">
-        <v>2011</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>2011</v>
-      </c>
-      <c r="AI11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL11" s="26"/>
-    </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2011</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="16">
-        <v>2017</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL12" s="26"/>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="36"/>
-    </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="26"/>
-    </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="26"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="21"/>
     </row>
     <row r="16" spans="1:38" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="33"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2586,9 +2675,10 @@
     <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{2DA8DA9C-5C56-4732-B7E0-F0EA32AEBAC8}"/>
     <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{4DF01CCA-22EB-4871-AAF9-A63A4C27488F}"/>
     <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{88B17616-30B0-4EEA-9A95-F3420944DE6B}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{487BE792-960F-4530-BF8E-EAC833016D5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4512EEF0-1C7D-40C1-9BF5-210A5B2A4FDC}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{13226F7D-9110-4D89-A4D8-E344B46DA5C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="211">
   <si>
     <t>Country</t>
   </si>
@@ -301,9 +301,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Ghana Population and Housing Census</t>
-  </si>
-  <si>
     <t>Background population data for the city</t>
   </si>
   <si>
@@ -427,9 +424,6 @@
     <t>2009-2010</t>
   </si>
   <si>
-    <t>Multiple files. Buenos Aires Metropolitan Area.</t>
-  </si>
-  <si>
     <t>National Department of Transportation</t>
   </si>
   <si>
@@ -508,33 +502,15 @@
     <t>Emailed by Ashish Verma from Bangalore</t>
   </si>
   <si>
-    <t>https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/sao_paulo</t>
-  </si>
-  <si>
-    <t>https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/accra</t>
-  </si>
-  <si>
-    <t>2005 &amp; 2015</t>
-  </si>
-  <si>
     <t>Our area is Valley of Mexico Metropolitan Area, formed by 61 cities: Acolman, Amecameca, Apaxco, Atenco, Atizapán de Zaragoza, Atlautla, Axapusco, Ayapango, Chalco, Chiautla, Chicoloapan, Chiconcuac, Chimalhuacán, Coacalco de Berriozábal, Cocotitlán, Coyotepec, Cuautitlán, Cuautitlán Izcalli, Ecatepec de Morelos, Ecatzingo, Huehuetoca, Hueypoxtla, Huixquilucan, Isidro Fabela, Ixtapaluca, Jaltenco, Jilotzingo, Juchitepec, La Paz, Melchor Ocampo, Mexico City, Naucalpan de Juárez, Nextlalpan, Nezahualcóyotl, Nicolás Romero, Nopaltepec, Otumba, Ozumba, Papalotla, San Martín de las Pirámides, Tecámac, Temamatla, Temascalapa, Tenango del Aire, Teoloyucan, Teotihuacán, Tepetlaoxtoc, Tepetlixpa, Tepotzotlán, Tequixquiac, Texcoco, Tezoyuca, Tizayuca, Tlalmanalco, Tlalnepantla de Baz, Tonanitla, Tultepec, Tultitlán, Valle de Chalco Solidaridad, Villa del Carbón, Zumpango.</t>
   </si>
   <si>
-    <t>Census Mexico</t>
-  </si>
-  <si>
-    <t>Census Chile</t>
-  </si>
-  <si>
     <t>Our area is Greater Accra Metropolitan Area, formed by 12 districts: Accra Metropolitan District, Tema Metropolis, Adenta, Ga East, Ga West, Ga South, Ga Central, La Nkwantang-Madina, Ledzokuku-Krowor, Ashaiman, Kpone-Katamanso, La Dade-Kotopon.</t>
   </si>
   <si>
     <t>Our area is Santiago Metropolitan Area, formed by 52 cities:  Alhué, Buin, Calera de Tango, Cerrillos, Cerro Navia, Colina, Conchalí, Curacaví, El Bosque, El Monte, Estación Central, Huechuraba, Independencia, Isla de Maipo, La Cisterna, La Florida, La Granja, La Pintana, La Reina, Lampa, Las Condes, Lo Barnechea, Lo Espejo, Lo Prado, Macul, Maipú, María Pinto, Melipilla, Ñuñoa, Padre Hurtado, Paine, Pedro Aguirre Cerda, Peñaflor, Peñalolén, Pirque, Providencia, Pudahuel, Puente Alto, Quilicura, Quinta Normal, Recoleta, Renca, San Bernardo, San Joaquín, San José de Maipo, San Miguel, San Pedro, San Ramón, Santiago, Talagante, Til Til, Vitacura</t>
   </si>
   <si>
-    <t>Census Argentina</t>
-  </si>
-  <si>
     <t>Belo Horizonte</t>
   </si>
   <si>
@@ -542,12 +518,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ‎Port Louis</t>
-  </si>
-  <si>
-    <t>Our area is Buenos Aires Metropolitan Area, formed by 43 cities: Almirante Brown, Avellaneda, Berazategui, Berisso, Brandsen, Buenos Aires, Campana, Cañuelas, Ensenada, Escobar, Esteban Echeverría, Exaltación de la Cruz, Ezeiza, Florencio Varela, General Las Heras, General Rodríguez, General San Martín, Hurlingham, Ituzaingó, José C. Paz, La Matanza (parte este), La Matanza (parte oeste), La Plata, Lanús, Lomas de Zamora, Luján, Malvinas Argentinas, Marcos Paz, Merlo, Moreno, Morón, Pilar, Presidente Perón, Quilmes, San Fernando (parte continental), San Fernando (parte insular), San Isidro, San Miguel, San Vicente, Tigre, Tres de Febrero, Vicente López, Zárate.</t>
-  </si>
-  <si>
-    <t>Our area is Bogota D.C. only</t>
   </si>
   <si>
     <t>Sample size</t>
@@ -640,24 +610,12 @@
     </r>
   </si>
   <si>
-    <t>Two options available at least: WHO SAGE 2014 (wave 2), Physical Activity and Sports Survey 2013-2018 (https://www.inegi.org.mx/programas/mopradef/)</t>
-  </si>
-  <si>
-    <t>Census (2005) &amp; population projection (2015)</t>
-  </si>
-  <si>
     <t>2010 &amp; 2017</t>
   </si>
   <si>
     <t>Our area is Sao Paulo Metropolitan Area, formed by 34 cities: Baldim, Belo Horizonte, Betim, Brumadinho, Caeté, Capim Branco, Confins, Contagem, Esmeraldas, Florestal, Ibirité, Igarapé, Itaguara, Itatiaiuçu, Jaboticatubas, Nova União, Juatuba, Lagoa Santa, Mário Campos, Mateus Leme, Matozinhos, Nova Lima, Pedro Leopoldo, Raposos, Ribeirão das Neves, Rio Acima, Rio Manso, Sabará, Santa Luzia, São Joaquim de Bicas, São José da Lapa, Sarzedo, Taquaraçu de Minas, Vespasiano</t>
   </si>
   <si>
-    <t>https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte</t>
-  </si>
-  <si>
-    <t>Brazil Population and Housing Census (2010) &amp; population projection (2017) (both from the Brazilian Institute of Geography and Statistics)</t>
-  </si>
-  <si>
     <t>Development Agency of the Belo Horizonte Metropolitan Area</t>
   </si>
   <si>
@@ -698,6 +656,57 @@
   </si>
   <si>
     <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Road deaths 27 Brazilian capitals 2010-15.xlsx</t>
+  </si>
+  <si>
+    <t>Population projection</t>
+  </si>
+  <si>
+    <t>Our area is Bogota D.C. only. Last census done in 2005</t>
+  </si>
+  <si>
+    <t>Ghana Population and Housing Census (2010) &amp; population projection (2017)</t>
+  </si>
+  <si>
+    <t>Brazil Population and Housing Census (2010) &amp; population projection (2017)</t>
+  </si>
+  <si>
+    <t>Argentina Population and Housing Census (2010) &amp; population projection (2017)</t>
+  </si>
+  <si>
+    <t>Our area is Gran Buenos Aires, formed by 24 cities: Almirante Brown, Avellaneda, Berazategui, Esteban Echeverría, Ezeiza, Florencio Varela, General San Martín, Hurlingham, Ituzaingó, José C. Paz, La Matanza, Lanús, Lomas de Zamora, Malvinas Argentinas, Merlo, Moreno, Morón, Quilmes, San Fernando, San Isidro, San Miguel, Tigre, Tres de Febrero, Vicente López. Sex- and age-specific population projections for the Buenos Aires province.</t>
+  </si>
+  <si>
+    <t>Chile Population and Housing Census</t>
+  </si>
+  <si>
+    <t>Multiple files. Buenos Aires Metropolitan Area (larger than Gran Buenos Aires).</t>
+  </si>
+  <si>
+    <t>Mexico Population and Housing Census (2010) &amp; population projection (2017)</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Accra\Accra data and microdata\Census</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Sao Paulo\Population</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Belo Horizonte\Population</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Colombia\Bogota\Population</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Mexico\Mexico City population</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Argentina\Population</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Chile\Population</t>
+  </si>
+  <si>
+    <t>Study on Global Aging and Adult Health (SAGE) - Wave 2</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1416,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:B1"/>
@@ -1422,11 +1431,11 @@
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -1434,7 +1443,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
       <c r="I1" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -1442,7 +1451,7 @@
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
       <c r="O1" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
@@ -1464,7 +1473,7 @@
       <c r="AE1" s="33"/>
       <c r="AF1" s="36"/>
       <c r="AG1" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH1" s="34"/>
       <c r="AI1" s="34"/>
@@ -1525,7 +1534,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>38</v>
@@ -1537,7 +1546,7 @@
         <v>37</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>40</v>
@@ -1552,7 +1561,7 @@
         <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>38</v>
@@ -1564,7 +1573,7 @@
         <v>37</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>40</v>
@@ -1596,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2010</v>
+        <v>196</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>78</v>
@@ -1611,7 +1620,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>79</v>
@@ -1643,14 +1652,14 @@
         <v>70</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>72</v>
@@ -1668,28 +1677,28 @@
         <v>76</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AK3" s="14" t="s">
         <v>69</v>
@@ -1704,13 +1713,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>78</v>
@@ -1719,7 +1728,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>79</v>
@@ -1735,75 +1744,75 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="9">
         <v>2012</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="11">
         <v>2015</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA4" s="11">
         <v>3082</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,16 +1820,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>78</v>
@@ -1829,7 +1838,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>79</v>
@@ -1845,66 +1854,66 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P5" s="9">
         <v>2012</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Y5" s="11">
         <v>2013</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="21"/>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1912,20 +1921,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>194</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>79</v>
@@ -1942,27 +1953,27 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P6" s="9">
         <v>2015</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -1973,19 +1984,19 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AH6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ6" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>69</v>
@@ -2000,20 +2011,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2010</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>202</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>79</v>
@@ -2030,39 +2043,43 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P7" s="9">
         <v>2017</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="11" t="s">
-        <v>188</v>
-      </c>
+      <c r="AF7" s="11"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
@@ -2078,20 +2095,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>198</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>79</v>
@@ -2108,50 +2127,50 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y8" s="11">
         <v>2013</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD8" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
@@ -2168,20 +2187,22 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9">
         <v>2017</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>79</v>
@@ -2198,20 +2219,20 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P9" s="9">
         <v>2012</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>88</v>
@@ -2219,20 +2240,20 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="11">
         <v>2015</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD9" s="11" t="s">
         <v>88</v>
@@ -2254,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="9">
         <v>2011</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
@@ -2281,20 +2302,20 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P10" s="9">
         <v>2013</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9" t="s">
@@ -2312,13 +2333,13 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9" t="s">
@@ -2334,13 +2355,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="9">
         <v>2011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
@@ -2361,20 +2382,20 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P11" s="9">
         <v>2011</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
@@ -2392,13 +2413,13 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH11" s="9">
         <v>2011</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9" t="s">
@@ -2414,13 +2435,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9">
         <v>2011</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
@@ -2441,7 +2462,7 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -2462,11 +2483,11 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9" t="s">
@@ -2476,7 +2497,7 @@
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2554,13 +2575,13 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
@@ -2568,10 +2589,10 @@
     </row>
     <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2675,7 +2696,7 @@
     <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{2DA8DA9C-5C56-4732-B7E0-F0EA32AEBAC8}"/>
     <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{4DF01CCA-22EB-4871-AAF9-A63A4C27488F}"/>
     <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{88B17616-30B0-4EEA-9A95-F3420944DE6B}"/>
-    <hyperlink ref="E5" r:id="rId11" xr:uid="{487BE792-960F-4530-BF8E-EAC833016D5D}"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte" xr:uid="{487BE792-960F-4530-BF8E-EAC833016D5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{58B9BE8B-73DC-4B84-B270-ADD34A1BB702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{13226F7D-9110-4D89-A4D8-E344B46DA5C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
   <si>
     <t>Country</t>
   </si>
@@ -448,18 +447,6 @@
     <t>Data exist. Request sent 3 times but no return from authorities.</t>
   </si>
   <si>
-    <t>C:/Users/rg574/Dropbox/Who hit who matrices international/Cities database/England</t>
-  </si>
-  <si>
-    <t>C:/Users/rg574/Dropbox/Who hit who matrices international/Cities database/India/Bengaluru</t>
-  </si>
-  <si>
-    <t>C:/Users/rg574/Dropbox/Who hit who matrices international/Cities database/India/Delhi</t>
-  </si>
-  <si>
-    <t>C:/Users/rg574/Dropbox/Who hit who matrices international/Cities database/India/Fatality_data_Indian cities/visakhapatnam</t>
-  </si>
-  <si>
     <t>Rob Johnson accessed from Anna/STATS19</t>
   </si>
   <si>
@@ -473,9 +460,6 @@
   </si>
   <si>
     <t>2005-2015</t>
-  </si>
-  <si>
-    <t>C:/Users/rg574/Dropbox/Who hit who matrices international/Cities database/Ghana</t>
   </si>
   <si>
     <t>2007-2016</t>
@@ -708,11 +692,23 @@
   <si>
     <t>Study on Global Aging and Adult Health (SAGE) - Wave 2</t>
   </si>
+  <si>
+    <t>Rob Johnson processed this data, which is what is in this folder now</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Accra\Accra data and microdata\RTI\injury data</t>
+  </si>
+  <si>
+    <t>V:/Studies/MOVED/HealthImpact/Data/TIGTHAT/India/injury data indian cities/Fatality_data_Indian cities/</t>
+  </si>
+  <si>
+    <t>V:/Studies/MOVED/HealthImpact/Data/TIGTHAT/India/injury data indian cities/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1412,14 +1408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="34" t="s">
@@ -1534,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>38</v>
@@ -1546,7 +1542,7 @@
         <v>37</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>40</v>
@@ -1561,7 +1557,7 @@
         <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>38</v>
@@ -1573,7 +1569,7 @@
         <v>37</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>40</v>
@@ -1605,13 +1601,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>78</v>
@@ -1620,7 +1616,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>79</v>
@@ -1683,27 +1679,29 @@
         <v>69</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF3" s="16" t="s">
         <v>100</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AK3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="19"/>
+      <c r="AL3" s="19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1713,13 +1711,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>78</v>
@@ -1782,19 +1780,19 @@
         <v>3082</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG4" s="9" t="s">
         <v>105</v>
@@ -1812,7 +1810,7 @@
         <v>69</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,16 +1818,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>78</v>
@@ -1838,7 +1836,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>79</v>
@@ -1854,7 +1852,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>119</v>
@@ -1863,52 +1861,52 @@
         <v>2012</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y5" s="11">
         <v>2013</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AG5" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="AJ5" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="21"/>
@@ -1921,13 +1919,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="9">
         <v>2017</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>78</v>
@@ -1936,7 +1934,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>79</v>
@@ -1996,7 +1994,7 @@
         <v>115</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>69</v>
@@ -2011,13 +2009,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>78</v>
@@ -2026,7 +2024,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>79</v>
@@ -2066,7 +2064,7 @@
         <v>111</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Y7" s="11">
         <v>2014</v>
@@ -2095,13 +2093,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>78</v>
@@ -2110,7 +2108,7 @@
         <v>69</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>79</v>
@@ -2147,7 +2145,7 @@
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>124</v>
@@ -2187,13 +2185,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9" s="9">
         <v>2017</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>78</v>
@@ -2202,7 +2200,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>79</v>
@@ -2267,7 +2265,7 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="21"/>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2275,13 +2273,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9">
         <v>2011</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
@@ -2302,20 +2300,20 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P10" s="9">
         <v>2013</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9" t="s">
@@ -2333,13 +2331,13 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9" t="s">
@@ -2347,7 +2345,7 @@
       </c>
       <c r="AL10" s="21"/>
     </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
@@ -2355,13 +2353,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9">
         <v>2011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
@@ -2382,20 +2380,20 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P11" s="9">
         <v>2011</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
@@ -2413,13 +2411,13 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AH11" s="9">
         <v>2011</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9" t="s">
@@ -2427,7 +2425,7 @@
       </c>
       <c r="AL11" s="21"/>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
@@ -2435,13 +2433,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" s="9">
         <v>2011</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
@@ -2462,7 +2460,7 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -2483,11 +2481,11 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9" t="s">
@@ -2497,7 +2495,7 @@
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2537,7 +2535,7 @@
       <c r="AK13" s="30"/>
       <c r="AL13" s="31"/>
     </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
@@ -2575,24 +2573,22 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AH14" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="21"/>
     </row>
     <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2631,7 +2627,7 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="21"/>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
@@ -2686,17 +2682,17 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K6" r:id="rId3" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K7" r:id="rId4" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K9" r:id="rId6" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K5" r:id="rId7" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{BCDDC5AF-6E28-4005-8C24-7B6A8AA12123}"/>
-    <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{2DA8DA9C-5C56-4732-B7E0-F0EA32AEBAC8}"/>
-    <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{4DF01CCA-22EB-4871-AAF9-A63A4C27488F}"/>
-    <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{88B17616-30B0-4EEA-9A95-F3420944DE6B}"/>
-    <hyperlink ref="E5" r:id="rId11" display="https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte" xr:uid="{487BE792-960F-4530-BF8E-EAC833016D5D}"/>
+    <hyperlink ref="K3" r:id="rId1" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K9" r:id="rId6" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K5" r:id="rId7" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
@@ -2704,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITHIM-R\project_mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E002D655F0BF92CA70A528B0D98F24444305BC0C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0CD5E0F0-CFF8-4EB9-A735-EAFD53428D90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="211">
   <si>
     <t>Country</t>
   </si>
@@ -704,11 +699,14 @@
   <si>
     <t>V:/Studies/MOVED/HealthImpact/Data/TIGTHAT/India/injury data indian cities/</t>
   </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\India\SAGE data 2007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1408,14 +1406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2263,7 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="21"/>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2321,13 +2319,25 @@
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
+      <c r="X10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD10" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="9" t="s">
@@ -2345,7 +2355,7 @@
       </c>
       <c r="AL10" s="21"/>
     </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
@@ -2401,13 +2411,25 @@
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
+      <c r="X11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="9" t="s">
@@ -2471,13 +2493,25 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
+      <c r="X12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="9" t="s">
@@ -2627,7 +2661,7 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="21"/>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
@@ -2682,17 +2716,17 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K6" r:id="rId3" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K7" r:id="rId4" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K9" r:id="rId6" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K5" r:id="rId7" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv"/>
-    <hyperlink ref="E5" r:id="rId11" display="https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte"/>
+    <hyperlink ref="K3" r:id="rId1" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K9" r:id="rId6" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K5" r:id="rId7" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K10" r:id="rId8" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K11" r:id="rId9" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K12" r:id="rId10" display="https://github.com/ITHIM/ITHIM-R/blob/master/data/local/accra/gbd_accra.csv" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://github.com/ITHIM/ITHIM-R/tree/master/inst/extdata/local/belo_horizonte" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
@@ -2700,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E002D655F0BF92CA70A528B0D98F24444305BC0C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0CD5E0F0-CFF8-4EB9-A735-EAFD53428D90}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E002D655F0BF92CA70A528B0D98F24444305BC0C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E98B1A18-FD70-47E7-834A-7CAD30BEEF35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
   <si>
     <t>Country</t>
   </si>
@@ -325,15 +325,9 @@
     <t>University of Sao Paulo School of Public Health</t>
   </si>
   <si>
-    <t>Datasets on household and individual characteristics also available in the same folder. Dataset must be filter in for urban Greater Accra region.</t>
-  </si>
-  <si>
     <t>Datasets on household and individual characteristics also available in the same folder (compressed folder 'Datasets'). Dataset must be filter in for urban Greater Accra region.</t>
   </si>
   <si>
-    <t>Covers Sao Paulo Metropolitan Area.</t>
-  </si>
-  <si>
     <t>2011-2015</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Colombia\Bogota\Travel</t>
   </si>
   <si>
-    <t>Multiple files.</t>
-  </si>
-  <si>
     <t>2010-2017</t>
   </si>
   <si>
@@ -482,9 +473,6 @@
   </si>
   <si>
     <t>Our area is Valley of Mexico Metropolitan Area, formed by 61 cities: Acolman, Amecameca, Apaxco, Atenco, Atizapán de Zaragoza, Atlautla, Axapusco, Ayapango, Chalco, Chiautla, Chicoloapan, Chiconcuac, Chimalhuacán, Coacalco de Berriozábal, Cocotitlán, Coyotepec, Cuautitlán, Cuautitlán Izcalli, Ecatepec de Morelos, Ecatzingo, Huehuetoca, Hueypoxtla, Huixquilucan, Isidro Fabela, Ixtapaluca, Jaltenco, Jilotzingo, Juchitepec, La Paz, Melchor Ocampo, Mexico City, Naucalpan de Juárez, Nextlalpan, Nezahualcóyotl, Nicolás Romero, Nopaltepec, Otumba, Ozumba, Papalotla, San Martín de las Pirámides, Tecámac, Temamatla, Temascalapa, Tenango del Aire, Teoloyucan, Teotihuacán, Tepetlaoxtoc, Tepetlixpa, Tepotzotlán, Tequixquiac, Texcoco, Tezoyuca, Tizayuca, Tlalmanalco, Tlalnepantla de Baz, Tonanitla, Tultepec, Tultitlán, Valle de Chalco Solidaridad, Villa del Carbón, Zumpango.</t>
-  </si>
-  <si>
-    <t>Our area is Greater Accra Metropolitan Area, formed by 12 districts: Accra Metropolitan District, Tema Metropolis, Adenta, Ga East, Ga West, Ga South, Ga Central, La Nkwantang-Madina, Ledzokuku-Krowor, Ashaiman, Kpone-Katamanso, La Dade-Kotopon.</t>
   </si>
   <si>
     <t>Our area is Santiago Metropolitan Area, formed by 52 cities:  Alhué, Buin, Calera de Tango, Cerrillos, Cerro Navia, Colina, Conchalí, Curacaví, El Bosque, El Monte, Estación Central, Huechuraba, Independencia, Isla de Maipo, La Cisterna, La Florida, La Granja, La Pintana, La Reina, Lampa, Las Condes, Lo Barnechea, Lo Espejo, Lo Prado, Macul, Maipú, María Pinto, Melipilla, Ñuñoa, Padre Hurtado, Paine, Pedro Aguirre Cerda, Peñaflor, Peñalolén, Pirque, Providencia, Pudahuel, Puente Alto, Quilicura, Quinta Normal, Recoleta, Renca, San Bernardo, San Joaquín, San José de Maipo, San Miguel, San Pedro, San Ramón, Santiago, Talagante, Til Til, Vitacura</t>
@@ -658,9 +646,6 @@
     <t>Chile Population and Housing Census</t>
   </si>
   <si>
-    <t>Multiple files. Buenos Aires Metropolitan Area (larger than Gran Buenos Aires).</t>
-  </si>
-  <si>
     <t>Mexico Population and Housing Census (2010) &amp; population projection (2017)</t>
   </si>
   <si>
@@ -701,6 +686,9 @@
   </si>
   <si>
     <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\India\SAGE data 2007</t>
+  </si>
+  <si>
+    <t>Our area is Greater Accra Metropolitan Area, formed by 12 districts: Accra Metropolitan District, Tema Metropolis, Adenta, Ga East, Ga West, Ga South, Ga Central, La Nkwantang-Madina, Ledzokuku-Krowor, Ashaiman, Kpone-Katamanso, La Dade-Kotopon. Dataset must be filter in for urban Greater Accra region.</t>
   </si>
 </sst>
 </file>
@@ -1409,11 +1397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1413,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="34" t="s">
@@ -1528,7 +1516,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>38</v>
@@ -1540,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>40</v>
@@ -1555,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>38</v>
@@ -1567,7 +1555,7 @@
         <v>37</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>40</v>
@@ -1599,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>78</v>
@@ -1613,9 +1601,7 @@
       <c r="G3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>152</v>
-      </c>
+      <c r="H3" s="14"/>
       <c r="I3" s="16" t="s">
         <v>79</v>
       </c>
@@ -1646,14 +1632,14 @@
         <v>70</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>72</v>
@@ -1671,34 +1657,34 @@
         <v>76</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="AL3" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,13 +1695,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>78</v>
@@ -1723,9 +1709,7 @@
       <c r="G4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="11" t="s">
         <v>79</v>
       </c>
@@ -1740,7 +1724,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>93</v>
@@ -1763,7 +1747,7 @@
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>97</v>
@@ -1778,37 +1762,37 @@
         <v>3082</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,16 +1800,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>78</v>
@@ -1833,9 +1817,7 @@
       <c r="G5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="16" t="s">
         <v>79</v>
       </c>
@@ -1850,61 +1832,63 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P5" s="9">
         <v>2012</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="X5" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Y5" s="11">
         <v>2013</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AH5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="AJ5" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="21"/>
@@ -1917,13 +1901,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="9">
         <v>2017</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>78</v>
@@ -1931,9 +1915,7 @@
       <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
         <v>79</v>
       </c>
@@ -1955,21 +1937,21 @@
         <v>2015</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -1980,19 +1962,19 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AI6" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ6" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>69</v>
@@ -2007,13 +1989,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>78</v>
@@ -2021,9 +2003,7 @@
       <c r="G7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
         <v>79</v>
       </c>
@@ -2039,30 +2019,30 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P7" s="9">
         <v>2017</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y7" s="11">
         <v>2014</v>
@@ -2091,13 +2071,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>78</v>
@@ -2105,9 +2085,7 @@
       <c r="G8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>194</v>
-      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
         <v>79</v>
       </c>
@@ -2123,50 +2101,50 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y8" s="11">
         <v>2013</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD8" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
@@ -2183,13 +2161,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="9">
         <v>2017</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>78</v>
@@ -2197,9 +2175,7 @@
       <c r="G9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
         <v>79</v>
       </c>
@@ -2215,41 +2191,43 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P9" s="9">
         <v>2012</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="W9" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="X9" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y9" s="11">
         <v>2015</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AD9" s="11" t="s">
         <v>88</v>
@@ -2271,13 +2249,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="9">
         <v>2011</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
@@ -2298,20 +2276,20 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P10" s="9">
         <v>2013</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9" t="s">
@@ -2330,10 +2308,10 @@
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD10" s="16" t="s">
         <v>88</v>
@@ -2341,13 +2319,13 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9" t="s">
@@ -2363,13 +2341,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="9">
         <v>2011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
@@ -2390,20 +2368,20 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P11" s="9">
         <v>2011</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
@@ -2422,10 +2400,10 @@
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD11" s="16" t="s">
         <v>88</v>
@@ -2433,13 +2411,13 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH11" s="9">
         <v>2011</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9" t="s">
@@ -2455,13 +2433,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D12" s="9">
         <v>2011</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
@@ -2482,7 +2460,7 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -2504,10 +2482,10 @@
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD12" s="16" t="s">
         <v>88</v>
@@ -2515,11 +2493,11 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9" t="s">
@@ -2529,7 +2507,7 @@
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2607,10 +2585,10 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
@@ -2619,10 +2597,10 @@
     </row>
     <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_E002D655F0BF92CA70A528B0D98F24444305BC0C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E98B1A18-FD70-47E7-834A-7CAD30BEEF35}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_E002D655F0BF92CA70A528B0D98F24444305BC0C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1FFC166F-0958-4D94-971C-186FC78D4F22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="208">
   <si>
     <t>Country</t>
   </si>
@@ -325,9 +325,6 @@
     <t>University of Sao Paulo School of Public Health</t>
   </si>
   <si>
-    <t>Datasets on household and individual characteristics also available in the same folder (compressed folder 'Datasets'). Dataset must be filter in for urban Greater Accra region.</t>
-  </si>
-  <si>
     <t>2011-2015</t>
   </si>
   <si>
@@ -425,12 +422,6 @@
   </si>
   <si>
     <t>Openly available (http://www.beta.inegi.org.mx/programas/eod/2017/)</t>
-  </si>
-  <si>
-    <t>Data dictionary in the same folder (doc_base_usuario_enfr2013).</t>
-  </si>
-  <si>
-    <t>Data exist. Request sent 3 times but no return from authorities.</t>
   </si>
   <si>
     <t>Rob Johnson accessed from Anna/STATS19</t>
@@ -580,9 +571,6 @@
     <t>2010 &amp; 2017</t>
   </si>
   <si>
-    <t>Our area is Sao Paulo Metropolitan Area, formed by 34 cities: Baldim, Belo Horizonte, Betim, Brumadinho, Caeté, Capim Branco, Confins, Contagem, Esmeraldas, Florestal, Ibirité, Igarapé, Itaguara, Itatiaiuçu, Jaboticatubas, Nova União, Juatuba, Lagoa Santa, Mário Campos, Mateus Leme, Matozinhos, Nova Lima, Pedro Leopoldo, Raposos, Ribeirão das Neves, Rio Acima, Rio Manso, Sabará, Santa Luzia, São Joaquim de Bicas, São José da Lapa, Sarzedo, Taquaraçu de Minas, Vespasiano</t>
-  </si>
-  <si>
     <t>Development Agency of the Belo Horizonte Metropolitan Area</t>
   </si>
   <si>
@@ -604,12 +592,6 @@
     <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Belo Horizonte\Physical activity\Data\PESPNS2013.txt</t>
   </si>
   <si>
-    <t>IPAQ long version. Covers Sao Paulo city only. Data from the 2013 National Health Survey available for the mtropolitan area</t>
-  </si>
-  <si>
-    <t>Covers Belo Horizonte Metropolitan Area</t>
-  </si>
-  <si>
     <t>Mortality surveillance system</t>
   </si>
   <si>
@@ -689,6 +671,27 @@
   </si>
   <si>
     <t>Our area is Greater Accra Metropolitan Area, formed by 12 districts: Accra Metropolitan District, Tema Metropolis, Adenta, Ga East, Ga West, Ga South, Ga Central, La Nkwantang-Madina, Ledzokuku-Krowor, Ashaiman, Kpone-Katamanso, La Dade-Kotopon. Dataset must be filter in for urban Greater Accra region.</t>
+  </si>
+  <si>
+    <t>Our area is Belo Horizonte Metropolitan Area, formed by 34 cities: Baldim, Belo Horizonte, Betim, Brumadinho, Caeté, Capim Branco, Confins, Contagem, Esmeraldas, Florestal, Ibirité, Igarapé, Itaguara, Itatiaiuçu, Jaboticatubas, Nova União, Juatuba, Lagoa Santa, Mário Campos, Mateus Leme, Matozinhos, Nova Lima, Pedro Leopoldo, Raposos, Ribeirão das Neves, Rio Acima, Rio Manso, Sabará, Santa Luzia, São Joaquim de Bicas, São José da Lapa, Sarzedo, Taquaraçu de Minas, Vespasiano</t>
+  </si>
+  <si>
+    <t>National Diet and Nutrition Survey</t>
+  </si>
+  <si>
+    <t>Ministry of Health</t>
+  </si>
+  <si>
+    <t>Available under request to Ministry. Dataset cannot be redistributed. A version of the final paper should be sent to the Ministry.</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Colombia\Bogota\Physical activity\base-ensin-2015-publica\Formato_Stata\AF_ADULTOS.dta</t>
+  </si>
+  <si>
+    <t>IPAQ long version. Covers Sao Paulo city only. Data from the 2013 National Health Survey (same as Belo Horizonte) also available for the metropolitan area</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Mexico\Physical activity\MexicoINDDataW2.dta</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="34" t="s">
@@ -1516,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>38</v>
@@ -1528,7 +1531,7 @@
         <v>37</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>40</v>
@@ -1543,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>38</v>
@@ -1555,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>40</v>
@@ -1587,13 +1590,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>78</v>
@@ -1632,14 +1635,14 @@
         <v>70</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>72</v>
@@ -1657,34 +1660,32 @@
         <v>76</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>99</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AK3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="AL3" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,13 +1696,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>78</v>
@@ -1724,7 +1725,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>93</v>
@@ -1747,7 +1748,7 @@
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>97</v>
@@ -1762,37 +1763,37 @@
         <v>3082</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="2" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,16 +1801,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>78</v>
@@ -1832,63 +1833,61 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P5" s="9">
         <v>2012</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="X5" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="Y5" s="11">
         <v>2013</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE5" s="11"/>
-      <c r="AF5" s="11" t="s">
-        <v>179</v>
-      </c>
+      <c r="AF5" s="11"/>
       <c r="AG5" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="21"/>
@@ -1901,13 +1900,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D6" s="9">
         <v>2017</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>78</v>
@@ -1937,44 +1936,54 @@
         <v>2015</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="AB6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="AE6" s="11"/>
-      <c r="AF6" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AH6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ6" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>69</v>
@@ -1989,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>78</v>
@@ -2019,30 +2028,30 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P7" s="9">
         <v>2017</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Y7" s="11">
         <v>2014</v>
@@ -2051,9 +2060,15 @@
         <v>74</v>
       </c>
       <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="AB7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="9"/>
@@ -2071,13 +2086,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>78</v>
@@ -2101,51 +2116,49 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="11">
         <v>2013</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD8" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AE8" s="11"/>
-      <c r="AF8" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
@@ -2161,13 +2174,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D9" s="9">
         <v>2017</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>78</v>
@@ -2191,43 +2204,43 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P9" s="9">
         <v>2012</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>88</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y9" s="11">
         <v>2015</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD9" s="11" t="s">
         <v>88</v>
@@ -2249,13 +2262,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" s="9">
         <v>2011</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
@@ -2276,20 +2289,20 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P10" s="9">
         <v>2013</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9" t="s">
@@ -2308,10 +2321,10 @@
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD10" s="16" t="s">
         <v>88</v>
@@ -2319,13 +2332,13 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9" t="s">
@@ -2341,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" s="9">
         <v>2011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
@@ -2368,20 +2381,20 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P11" s="9">
         <v>2011</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
@@ -2400,10 +2413,10 @@
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD11" s="16" t="s">
         <v>88</v>
@@ -2411,13 +2424,13 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AH11" s="9">
         <v>2011</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9" t="s">
@@ -2433,13 +2446,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D12" s="9">
         <v>2011</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
@@ -2460,7 +2473,7 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -2482,10 +2495,10 @@
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="16" t="s">
         <v>88</v>
@@ -2493,11 +2506,11 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9" t="s">
@@ -2507,7 +2520,7 @@
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2585,10 +2598,10 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
@@ -2597,10 +2610,10 @@
     </row>
     <row r="15" spans="1:38" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="209">
   <si>
     <t xml:space="preserve">Location</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve">Openly available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data are aggregated over six years. With additional extraction we could get year by year but it’s not worth it right now.</t>
   </si>
   <si>
     <t xml:space="preserve">Colombia</t>
@@ -784,8 +787,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -794,34 +803,13 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -969,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -996,13 +984,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -1011,15 +993,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1027,15 +1009,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,31 +1025,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1075,31 +1057,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,49 +1089,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in 40% - Accent5" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Note" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Input" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -1168,7 +1148,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1177,7 +1157,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1222,20 +1202,20 @@
   </sheetPr>
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK11" activeCellId="0" sqref="AK11"/>
+      <selection pane="bottomRight" activeCell="AL5" activeCellId="0" sqref="AL5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="38" min="3" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="3" style="0" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="39" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,23 +1696,25 @@
       <c r="AK5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AL5" s="15"/>
+      <c r="AL5" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="19" t="n">
         <v>2017</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>24</v>
@@ -1762,37 +1744,37 @@
         <v>2015</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>77</v>
       </c>
       <c r="V6" s="19"/>
       <c r="W6" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="21" t="n">
         <v>2015</v>
       </c>
       <c r="Z6" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="21" t="s">
         <v>77</v>
@@ -1800,16 +1782,16 @@
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI6" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ6" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" s="19" t="s">
         <v>25</v>
@@ -1818,19 +1800,19 @@
     </row>
     <row r="7" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>24</v>
@@ -1860,24 +1842,24 @@
         <v>2017</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>77</v>
       </c>
       <c r="V7" s="19"/>
       <c r="W7" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y7" s="21" t="n">
         <v>2014</v>
@@ -1887,7 +1869,7 @@
       </c>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC7" s="13" t="s">
         <v>37</v>
@@ -1906,19 +1888,19 @@
     </row>
     <row r="8" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>24</v>
@@ -1945,40 +1927,40 @@
         <v>68</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>77</v>
       </c>
       <c r="V8" s="19"/>
       <c r="W8" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y8" s="21" t="n">
         <v>2013</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD8" s="21" t="s">
         <v>77</v>
@@ -1994,19 +1976,19 @@
     </row>
     <row r="9" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="19" t="n">
         <v>2017</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>24</v>
@@ -2036,37 +2018,37 @@
         <v>2012</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>77</v>
       </c>
       <c r="V9" s="19"/>
       <c r="W9" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y9" s="21" t="n">
         <v>2015</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD9" s="21" t="s">
         <v>77</v>
@@ -2082,19 +2064,19 @@
     </row>
     <row r="10" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D10" s="19" t="n">
         <v>2011</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
@@ -2115,20 +2097,20 @@
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" s="19" t="n">
         <v>2013</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T10" s="19"/>
       <c r="U10" s="19" t="s">
@@ -2147,7 +2129,7 @@
       </c>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="13" t="s">
         <v>37</v>
@@ -2158,13 +2140,13 @@
       <c r="AE10" s="21"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19" t="s">
@@ -2174,19 +2156,19 @@
     </row>
     <row r="11" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="19" t="n">
         <v>2011</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
@@ -2207,20 +2189,20 @@
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P11" s="19" t="n">
         <v>2011</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="19" t="s">
@@ -2239,7 +2221,7 @@
       </c>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC11" s="13" t="s">
         <v>37</v>
@@ -2250,13 +2232,13 @@
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AH11" s="19" t="n">
         <v>2011</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19" t="s">
@@ -2266,19 +2248,19 @@
     </row>
     <row r="12" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="19" t="n">
         <v>2011</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
@@ -2299,7 +2281,7 @@
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -2321,7 +2303,7 @@
       </c>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>37</v>
@@ -2332,11 +2314,11 @@
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19" t="s">
@@ -2346,7 +2328,7 @@
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2388,10 +2370,10 @@
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2424,10 +2406,10 @@
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
@@ -2436,10 +2418,10 @@
     </row>
     <row r="15" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -2480,10 +2462,10 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -2547,7 +2529,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2562,227 +2544,227 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goelr\Work\ITHIM\ITHIM-R\project_mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RStudio Projects\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FF0D00-E35B-4E5B-A0A9-195C744BC1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="5415" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="236">
   <si>
     <t>Location</t>
   </si>
@@ -776,11 +775,32 @@
   <si>
     <t>Has been processed to account for trip frequency per week-- therefore estimated travel behavuour is representative of a week</t>
   </si>
+  <si>
+    <t>Motorcycles</t>
+  </si>
+  <si>
+    <t>no data completely imputed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use report LA motorcicleta en america latina 41 commercial:36 private (317 sample)  </t>
+  </si>
+  <si>
+    <t>Including 2 other cities in Latin America (not our cities they give) average ratio 31 private to 37 commerical motorbikes</t>
+  </si>
+  <si>
+    <t>30 commerical:38 (555 sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only consider personal use of MC </t>
+  </si>
+  <si>
+    <t>BA: 44 commerical : 27 (293 sample )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1073,21 +1093,6 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1174,6 +1179,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1558,1486 +1578,1524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:AL13"/>
+      <selection pane="bottomRight" activeCell="AS8" sqref="AS8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="38" width="18.44140625" customWidth="1"/>
-    <col min="39" max="39" width="44.21875" customWidth="1"/>
-    <col min="40" max="41" width="16.77734375" customWidth="1"/>
-    <col min="42" max="42" width="20.44140625" customWidth="1"/>
-    <col min="43" max="43" width="16.33203125" customWidth="1"/>
-    <col min="44" max="44" width="140.88671875" customWidth="1"/>
-    <col min="45" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="39" width="18.42578125" customWidth="1"/>
+    <col min="40" max="40" width="44.140625" customWidth="1"/>
+    <col min="41" max="42" width="16.85546875" customWidth="1"/>
+    <col min="43" max="43" width="20.42578125" customWidth="1"/>
+    <col min="44" max="44" width="16.42578125" customWidth="1"/>
+    <col min="45" max="45" width="140.85546875" customWidth="1"/>
+    <col min="46" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="3" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="4" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="2" t="s">
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-    </row>
-    <row r="2" spans="1:44" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+    </row>
+    <row r="2" spans="1:45" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="18" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:45" s="13" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="10">
         <v>2017</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="8">
         <v>2009</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13" t="s">
+      <c r="V3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="Y3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Z3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AA3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AB3" s="10">
         <v>397</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AC3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AD3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AE3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AF3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AK3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AL3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AM3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="26" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:45" s="21" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="18">
         <v>2017</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="16">
         <v>2012</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
+      <c r="V4" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="Y4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Z4" s="18">
         <v>2015</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="AA4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AB4" s="18">
         <v>3082</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AC4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AD4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AE4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AF4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AG4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AH4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AI4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AJ4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AJ4" s="21" t="s">
+      <c r="AK4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AK4" s="21" t="s">
+      <c r="AL4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AL4" s="25" t="s">
+      <c r="AM4" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:45" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <v>2017</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="16">
         <v>2012</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21" t="s">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21" t="s">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="Y5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Z5" s="18">
         <v>2013</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AD5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AE5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="21" t="s">
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AI5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AK5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AL5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="17" t="s">
+      <c r="AM5" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:45" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>2017</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="18">
         <v>2017</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="21" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="16">
         <v>2015</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21" t="s">
+      <c r="V6" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="Y6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Z6" s="18">
         <v>2015</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="AA6" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23" t="s">
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AD6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AD6" s="23" t="s">
+      <c r="AE6" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="21" t="s">
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AI6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AI6" s="21" t="s">
+      <c r="AJ6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AJ6" s="21" t="s">
+      <c r="AK6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AK6" s="21" t="s">
+      <c r="AL6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="27" t="s">
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AO6" s="27" t="s">
+      <c r="AP6" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:45" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="18">
         <v>2017</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="21" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="16">
         <v>2017</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21" t="s">
+      <c r="R7" s="16"/>
+      <c r="S7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21" t="s">
+      <c r="V7" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="Y7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Z7" s="18">
         <v>2014</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="AA7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AC7" s="15" t="s">
+      <c r="AD7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD7" s="23" t="s">
+      <c r="AE7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="21" t="s">
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AH7" s="21">
+      <c r="AI7" s="16">
         <v>2017</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AJ7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21" t="s">
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AL7" s="25" t="s">
+      <c r="AM7" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="AM7" s="27" t="s">
+      <c r="AN7" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AO7" s="27" t="s">
+      <c r="AP7" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AQ7" s="28" t="s">
+      <c r="AR7" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AR7" s="27" t="s">
+      <c r="AS7" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:45" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="18">
         <v>2017</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="21" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21" t="s">
+      <c r="R8" s="16"/>
+      <c r="S8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21" t="s">
+      <c r="V8" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="Y8" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Z8" s="18">
         <v>2013</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="AA8" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23" t="s">
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AC8" s="23" t="s">
+      <c r="AD8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="AD8" s="23" t="s">
+      <c r="AE8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="29" t="s">
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21" t="s">
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AL8" s="25" t="s">
+      <c r="AM8" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AM8" s="27" t="s">
+      <c r="AN8" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AO8" s="27" t="s">
+      <c r="AP8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AQ8" s="28"/>
-    </row>
-    <row r="9" spans="1:44" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="AR8" s="23"/>
+    </row>
+    <row r="9" spans="1:45" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>2017</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="18">
         <v>2017</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="21" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="16">
         <v>2012</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21" t="s">
+      <c r="R9" s="16"/>
+      <c r="S9" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21" t="s">
+      <c r="V9" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="Y9" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Z9" s="18">
         <v>2015</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="AA9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AD9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="AD9" s="23" t="s">
+      <c r="AE9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="21" t="s">
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AH9" s="21" t="s">
+      <c r="AI9" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AI9" s="21" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21" t="s">
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="27" t="s">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AO9" s="27" t="s">
+      <c r="AP9" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AQ9" s="28" t="s">
+      <c r="AR9" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AR9" s="27" t="s">
+      <c r="AS9" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:45" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>2011</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="18">
         <v>2017</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="16">
         <v>2013</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21" t="s">
+      <c r="R10" s="16"/>
+      <c r="S10" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21" t="s">
+      <c r="T10" s="16"/>
+      <c r="U10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="15" t="s">
+      <c r="V10" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Z10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="AA10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AD10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="15" t="s">
+      <c r="AE10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="21" t="s">
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="AH10" s="21" t="s">
+      <c r="AI10" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="AI10" s="21" t="s">
+      <c r="AJ10" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21" t="s">
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AL10" s="25"/>
-    </row>
-    <row r="11" spans="1:44" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="AM10" s="20"/>
+    </row>
+    <row r="11" spans="1:45" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>2011</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="10">
         <v>2017</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="16">
         <v>2011</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21" t="s">
+      <c r="T11" s="16"/>
+      <c r="U11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="15" t="s">
+      <c r="V11" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Z11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="AA11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AC11" s="15" t="s">
+      <c r="AD11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AE11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="21" t="s">
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="AH11" s="21">
+      <c r="AI11" s="16">
         <v>2011</v>
       </c>
-      <c r="AI11" s="21" t="s">
+      <c r="AJ11" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21" t="s">
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AL11" s="25"/>
-    </row>
-    <row r="12" spans="1:44" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="AM11" s="20"/>
+    </row>
+    <row r="12" spans="1:45" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="16">
         <v>2011</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="18">
         <v>2017</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="16">
         <v>2011</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21" t="s">
+      <c r="T12" s="16"/>
+      <c r="U12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="V12" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="W12" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="X12" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="Y12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Z12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="AA12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15" t="s">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AD12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD12" s="15" t="s">
+      <c r="AE12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="21" t="s">
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21" t="s">
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21" t="s">
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AL12" s="25"/>
-    </row>
-    <row r="13" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="AM12" s="20"/>
+    </row>
+    <row r="13" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-    </row>
-    <row r="14" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+    </row>
+    <row r="14" spans="1:45" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="21" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="AH14" s="21" t="s">
+      <c r="AI14" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="25"/>
-    </row>
-    <row r="15" spans="1:44" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="20"/>
+    </row>
+    <row r="15" spans="1:45" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="25"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="20"/>
+    </row>
+    <row r="16" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="36"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="A13:AL13"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="A13:AM13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AF1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>183</v>
       </c>
@@ -3051,7 +3109,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>187</v>
       </c>
@@ -3065,7 +3123,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -3079,7 +3137,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>191</v>
       </c>
@@ -3093,7 +3151,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>197</v>
       </c>
@@ -3107,7 +3165,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>200</v>
       </c>
@@ -3121,7 +3179,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>190</v>
       </c>
@@ -3129,7 +3187,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>204</v>
       </c>
@@ -3137,7 +3195,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>206</v>
       </c>
@@ -3145,7 +3203,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>208</v>
       </c>
@@ -3153,7 +3211,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>210</v>
       </c>
@@ -3161,7 +3219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>212</v>
       </c>
@@ -3169,7 +3227,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>214</v>
       </c>
@@ -3177,7 +3235,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>216</v>
       </c>
@@ -3185,37 +3243,37 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>224</v>
       </c>

--- a/project_mgmt/case_cities_data.xlsx
+++ b/project_mgmt/case_cities_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RStudio Projects\ITHIM-R\project_mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12772EEF-06B8-4AB2-AE97-77EF7BCA1057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="5415" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="242">
   <si>
     <t>Location</t>
   </si>
@@ -796,11 +797,29 @@
   <si>
     <t>BA: 44 commerical : 27 (293 sample )</t>
   </si>
+  <si>
+    <t>Only LTPA is provided. Sao Paulo occ PA data can be used.</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Brazil\Belo Horizonte\Physical activity\Process PA data.R</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Colombia\Bogota\Physical activity\Process PA data.R</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Argentina\WP3-PA\Process PA data.R</t>
+  </si>
+  <si>
+    <t>Only total MVPA can be calculated. However, survey participants indicated in which PA domains they engaged last week (same time of PA data).</t>
+  </si>
+  <si>
+    <t>V:\Studies\MOVED\HealthImpact\Data\TIGTHAT\Chile\Physical activity\Process PA data.R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1578,14 +1597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AS8" sqref="AS8"/>
+      <selection pane="bottomRight" activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,9 +2118,11 @@
         <v>77</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF5" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>237</v>
+      </c>
       <c r="AG5" s="18"/>
       <c r="AH5" s="16" t="s">
         <v>79</v>
@@ -2202,10 +2223,14 @@
         <v>95</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="AH6" s="16" t="s">
         <v>96</v>
       </c>
@@ -2309,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
@@ -2422,10 +2447,14 @@
         <v>130</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>240</v>
+      </c>
       <c r="AH8" s="24" t="s">
         <v>131</v>
       </c>
@@ -2526,10 +2555,14 @@
         <v>145</v>
       </c>
       <c r="AE9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>240</v>
+      </c>
       <c r="AH9" s="16" t="s">
         <v>146</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>38</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
@@ -2728,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
@@ -2829,7 +2862,7 @@
         <v>38</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="AF12" s="18"/>
       <c r="AG12" s="18"/>
@@ -3040,17 +3073,17 @@
     <mergeCell ref="Y1:AG1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -3058,7 +3091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
